--- a/Neetcode_75/Leetcode_75.xlsx
+++ b/Neetcode_75/Leetcode_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jigya\Desktop\Github_Projects\DataStructures_and_Algorithms\Neetcode_75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E31F0-06B8-4249-ADD5-584E365F1F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB2862-4F77-4889-B90D-88C200297709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="244">
   <si>
     <t>Video Solution</t>
   </si>
@@ -746,6 +746,12 @@
   </si>
   <si>
     <t>initialize a maxprofit and minprice, change the minprice if the current price is lower than the min price and calculate max profit based on price[i] minus minprice</t>
+  </si>
+  <si>
+    <t>Create a hashtable and then iterate through the array, every time you iterate through the array, check if the entry exists in hash table, if exists return true, else add the number to the hash table</t>
+  </si>
+  <si>
+    <t>We use the concept of prefix and suffix product, in the first pass through the output array, we store the prefix product and then we multiply the answer with the post fix product in the output array</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1258,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1348,9 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -1357,7 +1365,9 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">

--- a/Neetcode_75/Leetcode_75.xlsx
+++ b/Neetcode_75/Leetcode_75.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jigya\Desktop\Github_Projects\DataStructures_and_Algorithms\Neetcode_75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darksst/Desktop/Github/DataStructures_and_Algorithms/Neetcode_75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB2862-4F77-4889-B90D-88C200297709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7D71C-ECC5-FB46-85B4-EECA683D6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
   <si>
     <t>Video Solution</t>
   </si>
@@ -742,16 +742,10 @@
     <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
   </si>
   <si>
-    <t>Use a hashmap. First check if the current value minus some value in the hashmap exists such that target can be achieved, if not, then we add the current element and move to the next part</t>
-  </si>
-  <si>
-    <t>initialize a maxprofit and minprice, change the minprice if the current price is lower than the min price and calculate max profit based on price[i] minus minprice</t>
-  </si>
-  <si>
-    <t>Create a hashtable and then iterate through the array, every time you iterate through the array, check if the entry exists in hash table, if exists return true, else add the number to the hash table</t>
-  </si>
-  <si>
-    <t>We use the concept of prefix and suffix product, in the first pass through the output array, we store the prefix product and then we multiply the answer with the post fix product in the output array</t>
+    <t xml:space="preserve">Create a new structure for hash table, use UT_hash_handle hh, in the main function use two pointers NULL and tmp for creating a hash table and doing funcitons on it, then for each funciton use HASH_FIND_INT, if found then return the result and value, if not calculate the complement, and add it as a key value pair, do for every element in nums </t>
+  </si>
+  <si>
+    <t>set two variables, minPrice and maxProfit, initialize them to max and 0, after that in a for loop update minPrice for each number and check if maxProfit&lt;price[i]-MinPrice, if yes then update, return after loop</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1036,6 +1030,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,33 +1258,33 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="173.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="5" max="5" width="173.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="7"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1314,11 +1314,11 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1331,11 +1331,11 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1348,11 +1348,9 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1365,11 +1363,9 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1380,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -1399,7 +1395,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1410,7 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1425,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1440,7 @@
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1455,7 @@
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1470,7 @@
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>40</v>
       </c>
@@ -1489,7 +1485,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -1504,7 +1500,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>46</v>
       </c>
@@ -1519,7 +1515,7 @@
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1534,7 +1530,7 @@
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +1545,7 @@
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>56</v>
       </c>
@@ -1564,7 +1560,7 @@
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1575,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1590,7 @@
       </c>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>65</v>
       </c>
@@ -1609,7 +1605,7 @@
       </c>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>68</v>
       </c>
@@ -1624,7 +1620,7 @@
       </c>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>71</v>
       </c>
@@ -1639,7 +1635,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>74</v>
       </c>
@@ -1654,7 +1650,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>77</v>
       </c>
@@ -1669,7 +1665,7 @@
       </c>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>80</v>
       </c>
@@ -1684,7 +1680,7 @@
       </c>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>83</v>
       </c>
@@ -1699,7 +1695,7 @@
       </c>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>86</v>
       </c>
@@ -1714,7 +1710,7 @@
       </c>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>90</v>
       </c>
@@ -1729,7 +1725,7 @@
       </c>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>93</v>
       </c>
@@ -1744,7 +1740,7 @@
       </c>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>96</v>
       </c>
@@ -1759,7 +1755,7 @@
       </c>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>99</v>
       </c>
@@ -1774,7 +1770,7 @@
       </c>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -1789,7 +1785,7 @@
       </c>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>105</v>
       </c>
@@ -1804,7 +1800,7 @@
       </c>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>108</v>
       </c>
@@ -1819,7 +1815,7 @@
       </c>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
@@ -1834,7 +1830,7 @@
       </c>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>115</v>
       </c>
@@ -1849,7 +1845,7 @@
       </c>
       <c r="E39" s="23"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>118</v>
       </c>
@@ -1864,7 +1860,7 @@
       </c>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>121</v>
       </c>
@@ -1879,7 +1875,7 @@
       </c>
       <c r="E41" s="23"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>124</v>
       </c>
@@ -1894,7 +1890,7 @@
       </c>
       <c r="E42" s="23"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>127</v>
       </c>
@@ -1909,7 +1905,7 @@
       </c>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>131</v>
       </c>
@@ -1924,7 +1920,7 @@
       </c>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>134</v>
       </c>
@@ -1939,7 +1935,7 @@
       </c>
       <c r="E45" s="23"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>137</v>
       </c>
@@ -1954,7 +1950,7 @@
       </c>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>140</v>
       </c>
@@ -1969,7 +1965,7 @@
       </c>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>143</v>
       </c>
@@ -1984,7 +1980,7 @@
       </c>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>146</v>
       </c>
@@ -1999,7 +1995,7 @@
       </c>
       <c r="E49" s="23"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>150</v>
       </c>
@@ -2014,7 +2010,7 @@
       </c>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>153</v>
       </c>
@@ -2029,7 +2025,7 @@
       </c>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>156</v>
       </c>
@@ -2044,7 +2040,7 @@
       </c>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>159</v>
       </c>
@@ -2059,7 +2055,7 @@
       </c>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>163</v>
       </c>
@@ -2074,7 +2070,7 @@
       </c>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>166</v>
       </c>
@@ -2089,7 +2085,7 @@
       </c>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>169</v>
       </c>
@@ -2104,7 +2100,7 @@
       </c>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>172</v>
       </c>
@@ -2119,7 +2115,7 @@
       </c>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>175</v>
       </c>
@@ -2134,7 +2130,7 @@
       </c>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>178</v>
       </c>
@@ -2149,7 +2145,7 @@
       </c>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>181</v>
       </c>
@@ -2164,7 +2160,7 @@
       </c>
       <c r="E60" s="23"/>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>184</v>
       </c>
@@ -2179,7 +2175,7 @@
       </c>
       <c r="E61" s="23"/>
     </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>187</v>
       </c>
@@ -2194,7 +2190,7 @@
       </c>
       <c r="E62" s="23"/>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>190</v>
       </c>
@@ -2209,7 +2205,7 @@
       </c>
       <c r="E63" s="23"/>
     </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>194</v>
       </c>
@@ -2224,7 +2220,7 @@
       </c>
       <c r="E64" s="23"/>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>197</v>
       </c>
@@ -2239,7 +2235,7 @@
       </c>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>200</v>
       </c>
@@ -2254,7 +2250,7 @@
       </c>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>203</v>
       </c>
@@ -2269,7 +2265,7 @@
       </c>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>206</v>
       </c>
@@ -2284,7 +2280,7 @@
       </c>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>209</v>
       </c>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="E69" s="23"/>
     </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>212</v>
       </c>
@@ -2314,7 +2310,7 @@
       </c>
       <c r="E70" s="23"/>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>215</v>
       </c>
@@ -2329,7 +2325,7 @@
       </c>
       <c r="E71" s="23"/>
     </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>218</v>
       </c>
@@ -2344,7 +2340,7 @@
       </c>
       <c r="E72" s="23"/>
     </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>221</v>
       </c>
@@ -2359,7 +2355,7 @@
       </c>
       <c r="E73" s="23"/>
     </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>224</v>
       </c>
@@ -2374,7 +2370,7 @@
       </c>
       <c r="E74" s="23"/>
     </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>227</v>
       </c>
@@ -2389,7 +2385,7 @@
       </c>
       <c r="E75" s="23"/>
     </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>230</v>
       </c>
@@ -2404,7 +2400,7 @@
       </c>
       <c r="E76" s="23"/>
     </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>137</v>
       </c>
@@ -2419,7 +2415,7 @@
       </c>
       <c r="E77" s="23"/>
     </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>234</v>
       </c>
@@ -2434,7 +2430,7 @@
       </c>
       <c r="E78" s="23"/>
     </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>237</v>
       </c>
@@ -2449,929 +2445,929 @@
       </c>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/Neetcode_75/Leetcode_75.xlsx
+++ b/Neetcode_75/Leetcode_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darksst/Desktop/Github/DataStructures_and_Algorithms/Neetcode_75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7D71C-ECC5-FB46-85B4-EECA683D6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62581D60-32C5-AA44-9880-82705CB48ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
   <si>
     <t>Video Solution</t>
   </si>
@@ -746,13 +746,16 @@
   </si>
   <si>
     <t>set two variables, minPrice and maxProfit, initialize them to max and 0, after that in a for loop update minPrice for each number and check if maxProfit&lt;price[i]-MinPrice, if yes then update, return after loop</t>
+  </si>
+  <si>
+    <t>Create a hashtable with a key and initailize with UT_hash_handle hh, in the main function initialize three pointers for a new hash table, in a for loop check if a duplicate exists for each value in the array nums</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -764,38 +767,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -852,6 +862,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -994,10 +1012,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1037,8 +1056,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,7 +1279,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1348,7 +1369,9 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -1360,7 +1383,7 @@
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="23"/>

--- a/Neetcode_75/Leetcode_75.xlsx
+++ b/Neetcode_75/Leetcode_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darksst/Desktop/Github/DataStructures_and_Algorithms/Neetcode_75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62581D60-32C5-AA44-9880-82705CB48ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94E3B7-6483-E940-9465-8C9EDA3E8ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="244">
   <si>
     <t>Video Solution</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Create a hashtable with a key and initailize with UT_hash_handle hh, in the main function initialize three pointers for a new hash table, in a for loop check if a duplicate exists for each value in the array nums</t>
+  </si>
+  <si>
+    <t>We solve the problem using two pass, first we allocate memory for the return array as numsSize * sizeof(int) after that the first pass is going through by changing the elements to be the value of products left of them, and then modifying the values by multiplying the elements in the return array to a running right product</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1386,7 +1389,9 @@
       <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">

--- a/Neetcode_75/Leetcode_75.xlsx
+++ b/Neetcode_75/Leetcode_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darksst/Desktop/Github/DataStructures_and_Algorithms/Neetcode_75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94E3B7-6483-E940-9465-8C9EDA3E8ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B29E3F9-0CCC-3E45-959C-4526C3FB2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="245">
   <si>
     <t>Video Solution</t>
   </si>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>We solve the problem using two pass, first we allocate memory for the return array as numsSize * sizeof(int) after that the first pass is going through by changing the elements to be the value of products left of them, and then modifying the values by multiplying the elements in the return array to a running right product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize two variables, maxSum and currentSum, maxSum holds the max value which is updated after each iteration, the current sum goes through a condition to check adding the next element would reduce the value of the current sum, if yes, then new sub array is created. </t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1285,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1406,7 +1409,9 @@
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
